--- a/Dades en Llaç obert.xlsx
+++ b/Dades en Llaç obert.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{882FFD21-1B27-40D7-B1F7-00E6313C494E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46544317-8FCA-400F-A9E0-6C970E017122}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dades en Llaç obert" sheetId="1" r:id="rId1"/>
+    <sheet name="Mot, Tac, Pot, ADC" sheetId="1" r:id="rId1"/>
+    <sheet name="Passabaixos 34Hz" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Angle</t>
   </si>
@@ -116,12 +116,33 @@
   </si>
   <si>
     <t>Angle 2 rad</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vin </t>
+  </si>
+  <si>
+    <t>Pk-Pk</t>
+  </si>
+  <si>
+    <t>Mitjà</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Delay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,6 +562,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,11 +885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9359E7-2D80-4013-93A0-C952FEBF81FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,4 +2422,447 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="42">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="42">
+        <v>10</v>
+      </c>
+      <c r="C8" s="42">
+        <v>6.65</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="42">
+        <v>6.3</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="42">
+        <v>-17</v>
+      </c>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="42">
+        <v>20</v>
+      </c>
+      <c r="C9" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="D9" s="42">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="42">
+        <v>5.7</v>
+      </c>
+      <c r="F9" s="42">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="G9" s="42">
+        <v>-30</v>
+      </c>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="42">
+        <v>30</v>
+      </c>
+      <c r="C10" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="D10" s="42">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E10" s="42">
+        <v>5</v>
+      </c>
+      <c r="F10" s="42">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="G10" s="42">
+        <v>-40</v>
+      </c>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="42">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C11" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="D11" s="42">
+        <v>-0.25</v>
+      </c>
+      <c r="E11" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="F11" s="42">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="42">
+        <v>-45</v>
+      </c>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="42">
+        <v>50</v>
+      </c>
+      <c r="C12" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="D12" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="E12" s="42">
+        <v>3.84</v>
+      </c>
+      <c r="F12" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="G12" s="42">
+        <v>-52</v>
+      </c>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="42">
+        <v>100</v>
+      </c>
+      <c r="C13" s="42">
+        <v>6.64</v>
+      </c>
+      <c r="D13" s="42">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="E13" s="42">
+        <v>2.36</v>
+      </c>
+      <c r="F13" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="G13" s="42">
+        <v>-67</v>
+      </c>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="42">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="D14" s="42">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F14" s="42">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="G14" s="42">
+        <v>-80</v>
+      </c>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="42">
+        <v>10000</v>
+      </c>
+      <c r="C15" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="D15" s="42">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="42">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dades en Llaç obert.xlsx
+++ b/Dades en Llaç obert.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B03F8D5-BB67-4235-AEBA-4FF4B584A22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mot, Tac, Pot, ADC" sheetId="1" r:id="rId1"/>
-    <sheet name="Passabaixos 34Hz" sheetId="2" r:id="rId2"/>
+    <sheet name="Motor  Tac. Pot. i ADC" sheetId="1" r:id="rId1"/>
+    <sheet name="Bodes Filtre i Derivador" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Angle</t>
   </si>
@@ -138,12 +139,30 @@
   <si>
     <t>Delay</t>
   </si>
+  <si>
+    <t>Filtre 34Hz</t>
+  </si>
+  <si>
+    <t>Derivador</t>
+  </si>
+  <si>
+    <t>Guany 0,1</t>
+  </si>
+  <si>
+    <t>Guany 0,01</t>
+  </si>
+  <si>
+    <t>Saturació</t>
+  </si>
+  <si>
+    <t>Anomalies</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +223,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -249,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -446,11 +479,511 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,11 +1099,192 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,11 +1599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,340 +3139,661 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="42"/>
-      <c r="C2" s="43" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="84"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
+      <c r="D4" s="82"/>
+      <c r="E4" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="89"/>
+      <c r="K5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="47">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="55">
+        <v>6.5</v>
+      </c>
+      <c r="F6" s="53">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="43">
+        <f>-360*8.8/1000</f>
+        <v>-3.1680000000000006</v>
+      </c>
+      <c r="H6" s="55">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I6" s="53">
+        <v>-0.1</v>
+      </c>
+      <c r="J6" s="95">
+        <v>97</v>
+      </c>
+      <c r="K6" s="55">
+        <v>0.65</v>
+      </c>
+      <c r="L6" s="53">
+        <v>-0.01</v>
+      </c>
+      <c r="M6" s="43">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="47">
+        <v>2</v>
+      </c>
+      <c r="C7" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="D7" s="60">
+        <v>-0.05</v>
+      </c>
+      <c r="E7" s="55">
+        <v>6.5</v>
+      </c>
+      <c r="F7" s="53">
+        <v>-0.05</v>
+      </c>
+      <c r="G7" s="43">
+        <f>-360*2*4.4/1000</f>
+        <v>-3.1680000000000006</v>
+      </c>
+      <c r="H7" s="55">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I7" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>88</v>
+      </c>
+      <c r="K7" s="55">
+        <v>1</v>
+      </c>
+      <c r="L7" s="53">
+        <v>-0.01</v>
+      </c>
+      <c r="M7" s="43">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="47">
+        <v>3</v>
+      </c>
+      <c r="C8" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="D8" s="60">
+        <v>-0.63</v>
+      </c>
+      <c r="E8" s="55">
+        <v>6.5</v>
+      </c>
+      <c r="F8" s="53">
+        <v>-0.06</v>
+      </c>
+      <c r="G8" s="43">
+        <v>-5.5</v>
+      </c>
+      <c r="H8" s="55">
+        <v>12.4</v>
+      </c>
+      <c r="I8" s="57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>87</v>
+      </c>
+      <c r="K8" s="55">
+        <v>1.44</v>
+      </c>
+      <c r="L8" s="53">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="M8" s="43">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="47">
+        <v>5</v>
+      </c>
+      <c r="C9" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0.27</v>
+      </c>
+      <c r="E9" s="55">
+        <v>6.45</v>
+      </c>
+      <c r="F9" s="53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G9" s="43">
+        <v>-9</v>
+      </c>
+      <c r="H9" s="55">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I9" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>87</v>
+      </c>
+      <c r="K9" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L9" s="53">
+        <v>-0.01</v>
+      </c>
+      <c r="M9" s="43">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="47">
+        <v>10</v>
+      </c>
+      <c r="C10" s="51">
+        <v>6.65</v>
+      </c>
+      <c r="D10" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="55">
+        <v>6.3</v>
+      </c>
+      <c r="F10" s="53">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="43">
+        <v>-17</v>
+      </c>
+      <c r="H10" s="92">
+        <v>21.2</v>
+      </c>
+      <c r="I10" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>74</v>
+      </c>
+      <c r="K10" s="55">
+        <v>4.2</v>
+      </c>
+      <c r="L10" s="53">
+        <v>-0.02</v>
+      </c>
+      <c r="M10" s="43">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="47">
+        <v>15</v>
+      </c>
+      <c r="C11" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="60">
+        <v>-0.06</v>
+      </c>
+      <c r="E11" s="55">
+        <v>6</v>
+      </c>
+      <c r="F11" s="53">
+        <v>-0.01</v>
+      </c>
+      <c r="G11" s="43">
+        <v>-23.5</v>
+      </c>
+      <c r="H11" s="92">
+        <v>21.2</v>
+      </c>
+      <c r="I11" s="53">
+        <v>0.13</v>
+      </c>
+      <c r="J11" s="4">
+        <v>60</v>
+      </c>
+      <c r="K11" s="55">
+        <v>6.2</v>
+      </c>
+      <c r="L11" s="53">
+        <v>-0.02</v>
+      </c>
+      <c r="M11" s="43">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="47">
+        <v>20</v>
+      </c>
+      <c r="C12" s="51">
+        <v>6.6</v>
+      </c>
+      <c r="D12" s="60">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="55">
+        <v>5.7</v>
+      </c>
+      <c r="F12" s="53">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="G12" s="43">
+        <v>-30</v>
+      </c>
+      <c r="H12" s="92">
+        <v>21.2</v>
+      </c>
+      <c r="I12" s="53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>53</v>
+      </c>
+      <c r="K12" s="55">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L12" s="53">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M12" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="47">
+        <v>30</v>
+      </c>
+      <c r="C13" s="51">
+        <v>6.6</v>
+      </c>
+      <c r="D13" s="60">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E13" s="55">
+        <v>5</v>
+      </c>
+      <c r="F13" s="53">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="G13" s="43">
+        <v>-40</v>
+      </c>
+      <c r="H13" s="92">
+        <v>21.2</v>
+      </c>
+      <c r="I13" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="4">
+        <v>44</v>
+      </c>
+      <c r="K13" s="55">
+        <v>12.2</v>
+      </c>
+      <c r="L13" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="M13" s="43">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="47">
+        <v>34</v>
+      </c>
+      <c r="C14" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="D14" s="60">
+        <v>-0.01</v>
+      </c>
+      <c r="E14" s="55">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F14" s="53">
+        <v>-0.04</v>
+      </c>
+      <c r="G14" s="43">
+        <v>-43</v>
+      </c>
+      <c r="H14" s="92">
+        <v>21.2</v>
+      </c>
+      <c r="I14" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>41</v>
+      </c>
+      <c r="K14" s="55">
+        <v>13.6</v>
+      </c>
+      <c r="L14" s="53">
+        <v>-0.06</v>
+      </c>
+      <c r="M14" s="43">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="47">
+        <v>40</v>
+      </c>
+      <c r="C15" s="51">
+        <v>6.5</v>
+      </c>
+      <c r="D15" s="60">
+        <v>-0.02</v>
+      </c>
+      <c r="E15" s="55">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F15" s="53">
+        <v>-0.05</v>
+      </c>
+      <c r="G15" s="43">
+        <v>-46</v>
+      </c>
+      <c r="H15" s="92">
+        <v>21.2</v>
+      </c>
+      <c r="I15" s="53">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>38</v>
+      </c>
+      <c r="K15" s="55">
+        <v>16.2</v>
+      </c>
+      <c r="L15" s="53">
+        <v>2E-3</v>
+      </c>
+      <c r="M15" s="43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="47">
+        <v>50</v>
+      </c>
+      <c r="C16" s="51">
+        <v>6.6</v>
+      </c>
+      <c r="D16" s="60">
+        <v>-0.02</v>
+      </c>
+      <c r="E16" s="55">
+        <v>3.84</v>
+      </c>
+      <c r="F16" s="53">
+        <v>-0.03</v>
+      </c>
+      <c r="G16" s="43">
+        <v>-52</v>
+      </c>
+      <c r="H16" s="92">
+        <v>21.2</v>
+      </c>
+      <c r="I16" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="J16" s="4">
         <v>33</v>
       </c>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="42">
-        <v>1E-3</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="K16" s="55">
+        <v>20</v>
+      </c>
+      <c r="L16" s="53">
+        <v>0</v>
+      </c>
+      <c r="M16" s="43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="47">
+        <v>100</v>
+      </c>
+      <c r="C17" s="51">
+        <v>6.64</v>
+      </c>
+      <c r="D17" s="60">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="E17" s="55">
+        <v>2.36</v>
+      </c>
+      <c r="F17" s="53">
+        <v>-0.03</v>
+      </c>
+      <c r="G17" s="43">
+        <v>-67</v>
+      </c>
+      <c r="H17" s="92">
+        <v>21.2</v>
+      </c>
+      <c r="I17" s="53">
+        <v>0.03</v>
+      </c>
+      <c r="J17" s="4">
+        <v>18</v>
+      </c>
+      <c r="K17" s="90">
+        <v>21.2</v>
+      </c>
+      <c r="L17" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="47">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="51">
+        <v>6.6</v>
+      </c>
+      <c r="D18" s="60">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F18" s="53">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="G18" s="43">
+        <v>-80</v>
+      </c>
+      <c r="H18" s="93">
+        <v>0</v>
+      </c>
+      <c r="I18" s="94">
+        <v>0</v>
+      </c>
+      <c r="J18" s="95">
+        <v>0</v>
+      </c>
+      <c r="K18" s="93">
+        <v>0</v>
+      </c>
+      <c r="L18" s="94">
+        <v>0</v>
+      </c>
+      <c r="M18" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="48">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="D19" s="61">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="54">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G19" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42">
-        <v>0.01</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="42">
-        <v>1</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
-        <v>10</v>
-      </c>
-      <c r="C8" s="42">
-        <v>6.65</v>
-      </c>
-      <c r="D8" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="42">
-        <v>6.3</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="42">
-        <v>-17</v>
-      </c>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
-        <v>20</v>
-      </c>
-      <c r="C9" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="D9" s="42">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="42">
-        <v>5.7</v>
-      </c>
-      <c r="F9" s="42">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="G9" s="42">
-        <v>-30</v>
-      </c>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
-        <v>30</v>
-      </c>
-      <c r="C10" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="D10" s="42">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E10" s="42">
-        <v>5</v>
-      </c>
-      <c r="F10" s="42">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="G10" s="42">
-        <v>-40</v>
-      </c>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="42">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="C11" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="D11" s="42">
-        <v>-0.25</v>
-      </c>
-      <c r="E11" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="F11" s="42">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="G11" s="42">
-        <v>-45</v>
-      </c>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="42">
-        <v>50</v>
-      </c>
-      <c r="C12" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="D12" s="42">
-        <v>-0.02</v>
-      </c>
-      <c r="E12" s="42">
-        <v>3.84</v>
-      </c>
-      <c r="F12" s="42">
-        <v>-0.03</v>
-      </c>
-      <c r="G12" s="42">
-        <v>-52</v>
-      </c>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="42">
-        <v>100</v>
-      </c>
-      <c r="C13" s="42">
-        <v>6.64</v>
-      </c>
-      <c r="D13" s="42">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="E13" s="42">
-        <v>2.36</v>
-      </c>
-      <c r="F13" s="42">
-        <v>-0.03</v>
-      </c>
-      <c r="G13" s="42">
-        <v>-67</v>
-      </c>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="D14" s="42">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F14" s="42">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="G14" s="42">
-        <v>-80</v>
-      </c>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="42">
-        <v>10000</v>
-      </c>
-      <c r="C15" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="D15" s="42">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0.05</v>
-      </c>
-      <c r="F15" s="42">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H19" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="I19" s="98">
+        <v>5.3</v>
+      </c>
+      <c r="J19" s="99">
+        <v>-120</v>
+      </c>
+      <c r="K19" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="L19" s="98">
+        <v>5.3</v>
+      </c>
+      <c r="M19" s="100">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
@@ -2767,34 +3802,35 @@
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
     </row>
-    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
@@ -2803,7 +3839,7 @@
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -2812,7 +3848,7 @@
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
     </row>
-    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -2821,7 +3857,7 @@
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -2830,16 +3866,15 @@
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -2848,7 +3883,7 @@
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -2858,9 +3893,21 @@
       <c r="H32" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+  <mergeCells count="14">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dades en Llaç obert.xlsx
+++ b/Dades en Llaç obert.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B03F8D5-BB67-4235-AEBA-4FF4B584A22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Motor  Tac. Pot. i ADC" sheetId="1" r:id="rId1"/>
-    <sheet name="Bodes Filtre i Derivador" sheetId="2" r:id="rId2"/>
+    <sheet name="PWM en llaç obert" sheetId="3" r:id="rId2"/>
+    <sheet name="Bodes Filtre i Derivador" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Angle</t>
   </si>
@@ -156,12 +156,27 @@
   </si>
   <si>
     <t>Anomalies</t>
+  </si>
+  <si>
+    <t>% DC</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>Freqüència</t>
+  </si>
+  <si>
+    <t>Amplada</t>
+  </si>
+  <si>
+    <t>Escala Ton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1154,94 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,6 +1205,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,6 +1215,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,11 +1614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="B3" sqref="B3:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,10 +3154,479 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="42">
+        <v>-5</v>
+      </c>
+      <c r="C4" s="42">
+        <f>ABS(B4)/$C$34*100</f>
+        <v>100</v>
+      </c>
+      <c r="D4" s="42">
+        <f>1/$C$33*(C4)/100*$C$35</f>
+        <v>500</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="42">
+        <v>-4.5</v>
+      </c>
+      <c r="C5" s="42">
+        <f t="shared" ref="C5:C30" si="0">ABS(B5)/$C$34*100</f>
+        <v>90</v>
+      </c>
+      <c r="D5" s="42">
+        <f t="shared" ref="D5:D30" si="1">1/$C$33*(C5)/100*$C$35</f>
+        <v>450</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="42">
+        <v>-4</v>
+      </c>
+      <c r="C6" s="42">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D6" s="42">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="42">
+        <v>-3.5</v>
+      </c>
+      <c r="C7" s="42">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D7" s="42">
+        <f t="shared" si="1"/>
+        <v>350.00000000000006</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="42">
+        <v>-3</v>
+      </c>
+      <c r="C8" s="42">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D8" s="42">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="C9" s="42">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D9" s="42">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="42">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D10" s="42">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="42">
+        <v>-1.5</v>
+      </c>
+      <c r="C11" s="42">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="42">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="42">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="42">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="42">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="42">
+        <v>-0.8</v>
+      </c>
+      <c r="C13" s="42">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="42">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="42">
+        <v>-0.6</v>
+      </c>
+      <c r="C14" s="42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="42">
+        <v>-0.4</v>
+      </c>
+      <c r="C15" s="42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="42">
+        <v>-0.2</v>
+      </c>
+      <c r="C16" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D16" s="42">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="42">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="42">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="C20" s="42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="42">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="42">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="42">
+        <v>1</v>
+      </c>
+      <c r="C22" s="42">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="42">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D23" s="42">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="42">
+        <v>2</v>
+      </c>
+      <c r="C24" s="42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D24" s="42">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="C25" s="42">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="42">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="42">
+        <v>3</v>
+      </c>
+      <c r="C26" s="42">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D26" s="42">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="42">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D27" s="42">
+        <f t="shared" si="1"/>
+        <v>350.00000000000006</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="42">
+        <v>4</v>
+      </c>
+      <c r="C28" s="42">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D28" s="42">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="C29" s="42">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D29" s="42">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="42">
+        <v>5</v>
+      </c>
+      <c r="C30" s="42">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D30" s="42">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -3150,79 +3634,79 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="69" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="66" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="83" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86" t="s">
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="84"/>
-      <c r="M3" s="87"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="103"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79" t="s">
+      <c r="D4" s="98"/>
+      <c r="E4" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="78" t="s">
+      <c r="F4" s="96"/>
+      <c r="G4" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="88" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
-      <c r="B5" s="76"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="44" t="s">
         <v>29</v>
       </c>
@@ -3235,21 +3719,21 @@
       <c r="F5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="65"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="47">
@@ -3277,7 +3761,7 @@
       <c r="I6" s="53">
         <v>-0.1</v>
       </c>
-      <c r="J6" s="95">
+      <c r="J6" s="66">
         <v>97</v>
       </c>
       <c r="K6" s="55">
@@ -3424,7 +3908,7 @@
       <c r="G10" s="43">
         <v>-17</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="63">
         <v>21.2</v>
       </c>
       <c r="I10" s="53">
@@ -3462,7 +3946,7 @@
       <c r="G11" s="43">
         <v>-23.5</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="63">
         <v>21.2</v>
       </c>
       <c r="I11" s="53">
@@ -3500,7 +3984,7 @@
       <c r="G12" s="43">
         <v>-30</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="63">
         <v>21.2</v>
       </c>
       <c r="I12" s="53">
@@ -3538,7 +4022,7 @@
       <c r="G13" s="43">
         <v>-40</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="63">
         <v>21.2</v>
       </c>
       <c r="I13" s="53">
@@ -3576,7 +4060,7 @@
       <c r="G14" s="43">
         <v>-43</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="63">
         <v>21.2</v>
       </c>
       <c r="I14" s="53">
@@ -3614,7 +4098,7 @@
       <c r="G15" s="43">
         <v>-46</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H15" s="63">
         <v>21.2</v>
       </c>
       <c r="I15" s="53">
@@ -3652,7 +4136,7 @@
       <c r="G16" s="43">
         <v>-52</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="63">
         <v>21.2</v>
       </c>
       <c r="I16" s="53">
@@ -3690,7 +4174,7 @@
       <c r="G17" s="43">
         <v>-67</v>
       </c>
-      <c r="H17" s="92">
+      <c r="H17" s="63">
         <v>21.2</v>
       </c>
       <c r="I17" s="53">
@@ -3699,7 +4183,7 @@
       <c r="J17" s="4">
         <v>18</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="62">
         <v>21.2</v>
       </c>
       <c r="L17" s="53">
@@ -3728,22 +4212,22 @@
       <c r="G18" s="43">
         <v>-80</v>
       </c>
-      <c r="H18" s="93">
-        <v>0</v>
-      </c>
-      <c r="I18" s="94">
-        <v>0</v>
-      </c>
-      <c r="J18" s="95">
-        <v>0</v>
-      </c>
-      <c r="K18" s="93">
-        <v>0</v>
-      </c>
-      <c r="L18" s="94">
-        <v>0</v>
-      </c>
-      <c r="M18" s="96">
+      <c r="H18" s="64">
+        <v>0</v>
+      </c>
+      <c r="I18" s="65">
+        <v>0</v>
+      </c>
+      <c r="J18" s="66">
+        <v>0</v>
+      </c>
+      <c r="K18" s="64">
+        <v>0</v>
+      </c>
+      <c r="L18" s="65">
+        <v>0</v>
+      </c>
+      <c r="M18" s="67">
         <v>0</v>
       </c>
     </row>
@@ -3766,22 +4250,22 @@
       <c r="G19" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="97">
+      <c r="H19" s="68">
         <v>8.6</v>
       </c>
-      <c r="I19" s="98">
+      <c r="I19" s="69">
         <v>5.3</v>
       </c>
-      <c r="J19" s="99">
+      <c r="J19" s="70">
         <v>-120</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="68">
         <v>8.6</v>
       </c>
-      <c r="L19" s="98">
+      <c r="L19" s="69">
         <v>5.3</v>
       </c>
-      <c r="M19" s="100">
+      <c r="M19" s="71">
         <v>-120</v>
       </c>
     </row>
@@ -3809,8 +4293,8 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
@@ -3819,8 +4303,8 @@
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="42"/>

--- a/Dades en Llaç obert.xlsx
+++ b/Dades en Llaç obert.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Control Automatic\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Motor  Tac. Pot. i ADC" sheetId="1" r:id="rId1"/>
     <sheet name="PWM en llaç obert" sheetId="3" r:id="rId2"/>
     <sheet name="Bodes Filtre i Derivador" sheetId="2" r:id="rId3"/>
+    <sheet name="Motor  PWM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Angle</t>
   </si>
@@ -172,12 +173,36 @@
   <si>
     <t>Escala Ton</t>
   </si>
+  <si>
+    <t>El fre distorsiona el Duty Cycle %</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>D% A</t>
+  </si>
+  <si>
+    <t>D% B</t>
+  </si>
+  <si>
+    <t>Retard A-B us</t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>kHz</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +277,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +329,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="60">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -994,11 +1033,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,6 +1268,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,6 +1380,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,7 +1738,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F30"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3634,79 +3754,79 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="85" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="82" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="99" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102" t="s">
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="100"/>
-      <c r="M3" s="103"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="95" t="s">
+      <c r="D4" s="104"/>
+      <c r="E4" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="102"/>
+      <c r="G4" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="104" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="86" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
-      <c r="B5" s="92"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="44" t="s">
         <v>29</v>
       </c>
@@ -3719,21 +3839,21 @@
       <c r="F5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="81"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="81"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="47">
@@ -4396,4 +4516,1057 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>-5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D4" s="33">
+        <f>148.3/4</f>
+        <v>37.075000000000003</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4*2*PI()</f>
+        <v>232.94909526368318</v>
+      </c>
+      <c r="F4" s="37">
+        <f>D4*60</f>
+        <v>2224.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>246</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="120">
+        <v>100</v>
+      </c>
+      <c r="J4" s="121">
+        <v>0</v>
+      </c>
+      <c r="K4" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-4.5010000000000003</v>
+      </c>
+      <c r="D5" s="34">
+        <f>122/4</f>
+        <v>30.5</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5*2*PI()</f>
+        <v>191.63715186897738</v>
+      </c>
+      <c r="F5" s="38">
+        <f>D5*60</f>
+        <v>1830</v>
+      </c>
+      <c r="G5" s="4">
+        <v>203</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="I5" s="34">
+        <v>93.6</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="K5" s="79"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>-4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-4.0030000000000001</v>
+      </c>
+      <c r="D6" s="35">
+        <f>102.5/4</f>
+        <v>25.625</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:E29" si="0">D6*2*PI()</f>
+        <v>161.00662349647689</v>
+      </c>
+      <c r="F6" s="39">
+        <f t="shared" ref="F6:F29" si="1">D6*60</f>
+        <v>1537.5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>170</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="I6" s="120">
+        <v>88.4</v>
+      </c>
+      <c r="J6" s="121">
+        <v>11.8</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="74">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="M6" s="74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-3.5019999999999998</v>
+      </c>
+      <c r="D7" s="34">
+        <f>82/4</f>
+        <v>20.5</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>128.80529879718151</v>
+      </c>
+      <c r="F7" s="38">
+        <f t="shared" si="1"/>
+        <v>1230</v>
+      </c>
+      <c r="G7" s="4">
+        <v>138</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="I7" s="34">
+        <v>83.6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="K7" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="74">
+        <f>1000/(L6)</f>
+        <v>58.616647127784297</v>
+      </c>
+      <c r="M7" s="74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>-3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-3.0009999999999999</v>
+      </c>
+      <c r="D8" s="35">
+        <f>64.8/4</f>
+        <v>16.2</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>101.78760197630929</v>
+      </c>
+      <c r="F8" s="39">
+        <f t="shared" si="1"/>
+        <v>972</v>
+      </c>
+      <c r="G8" s="6">
+        <v>114</v>
+      </c>
+      <c r="H8" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="I8" s="120">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="J8" s="121">
+        <v>21.6</v>
+      </c>
+      <c r="K8" s="79"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>-2.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-2.5030000000000001</v>
+      </c>
+      <c r="D9" s="34">
+        <f>51.1/4</f>
+        <v>12.775</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>80.26769229921922</v>
+      </c>
+      <c r="F9" s="38">
+        <f t="shared" si="1"/>
+        <v>766.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>87</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="I9" s="34">
+        <v>76.3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="K9" s="79"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-2</v>
+      </c>
+      <c r="D10" s="35">
+        <f>33.5/4</f>
+        <v>8.375</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>52.621676947629034</v>
+      </c>
+      <c r="F10" s="39">
+        <f t="shared" si="1"/>
+        <v>502.5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>50</v>
+      </c>
+      <c r="H10" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I10" s="120">
+        <v>70</v>
+      </c>
+      <c r="J10" s="121">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K10" s="79"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>-1.5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1.5029999999999999</v>
+      </c>
+      <c r="D11" s="34">
+        <f>13.75/4</f>
+        <v>3.4375</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="4">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3">
+        <v>21.3</v>
+      </c>
+      <c r="I11" s="34">
+        <v>65.2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K11" s="79"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-1.0049999999999999</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>24.2</v>
+      </c>
+      <c r="I12" s="120">
+        <v>60.2</v>
+      </c>
+      <c r="J12" s="121">
+        <v>42.6</v>
+      </c>
+      <c r="K12" s="79"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>-0.8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-0.80100000000000005</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="I13" s="34">
+        <v>59</v>
+      </c>
+      <c r="J13" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="K13" s="79"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>-0.6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="I14" s="120">
+        <v>57.7</v>
+      </c>
+      <c r="J14" s="121">
+        <v>45.1</v>
+      </c>
+      <c r="K14" s="79"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>-0.4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-0.40300000000000002</v>
+      </c>
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>27</v>
+      </c>
+      <c r="I15" s="34">
+        <v>55.2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="K15" s="79"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="124"/>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>-0.2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>27.8</v>
+      </c>
+      <c r="I16" s="120">
+        <v>54</v>
+      </c>
+      <c r="J16" s="121">
+        <v>48.8</v>
+      </c>
+      <c r="K16" s="79"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-1E-3</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="I17" s="34">
+        <v>51.5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>51.3</v>
+      </c>
+      <c r="K17" s="79"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>30.7</v>
+      </c>
+      <c r="I18" s="120">
+        <v>49.1</v>
+      </c>
+      <c r="J18" s="121">
+        <v>53.8</v>
+      </c>
+      <c r="K18" s="79"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>31.4</v>
+      </c>
+      <c r="I19" s="34">
+        <v>47.8</v>
+      </c>
+      <c r="J19" s="4">
+        <v>55</v>
+      </c>
+      <c r="K19" s="79"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I20" s="120">
+        <v>45.4</v>
+      </c>
+      <c r="J20" s="121">
+        <v>57.5</v>
+      </c>
+      <c r="K20" s="79"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="I21" s="34">
+        <v>44.1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>58.7</v>
+      </c>
+      <c r="K21" s="79"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5">
+        <v>-21.4</v>
+      </c>
+      <c r="I22" s="120">
+        <v>38</v>
+      </c>
+      <c r="J22" s="121">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="K22" s="79"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="74"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.502</v>
+      </c>
+      <c r="D23" s="34">
+        <f>15/4</f>
+        <v>3.75</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>23.561944901923447</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G23" s="4">
+        <v>44</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="I23" s="34">
+        <v>33</v>
+      </c>
+      <c r="J23" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="K23" s="79"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="35">
+        <f>39.2/4</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>61.575216010359952</v>
+      </c>
+      <c r="F24" s="39">
+        <f t="shared" si="1"/>
+        <v>588</v>
+      </c>
+      <c r="G24" s="6">
+        <v>77</v>
+      </c>
+      <c r="H24" s="5">
+        <v>-15.6</v>
+      </c>
+      <c r="I24" s="120">
+        <v>28</v>
+      </c>
+      <c r="J24" s="121">
+        <v>74.7</v>
+      </c>
+      <c r="K24" s="79"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="74"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="34">
+        <f>57/4</f>
+        <v>14.25</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>89.535390627309098</v>
+      </c>
+      <c r="F25" s="38">
+        <f t="shared" si="1"/>
+        <v>855</v>
+      </c>
+      <c r="G25" s="4">
+        <v>104</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-13.1</v>
+      </c>
+      <c r="I25" s="34">
+        <v>23.1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="K25" s="79"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="35">
+        <f>70/4</f>
+        <v>17.5</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>109.95574287564276</v>
+      </c>
+      <c r="F26" s="39">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="G26" s="6">
+        <v>120</v>
+      </c>
+      <c r="H26" s="5">
+        <v>-12.2</v>
+      </c>
+      <c r="I26" s="120">
+        <v>18.2</v>
+      </c>
+      <c r="J26" s="121">
+        <v>80.8</v>
+      </c>
+      <c r="K26" s="79"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="74"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D27" s="34">
+        <f>85.5/4</f>
+        <v>21.375</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>134.30308594096365</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="1"/>
+        <v>1282.5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>160</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-8.7100000000000009</v>
+      </c>
+      <c r="I27" s="34">
+        <v>12</v>
+      </c>
+      <c r="J27" s="4">
+        <v>86.6</v>
+      </c>
+      <c r="K27" s="79"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="D28" s="35">
+        <f>104.1/4</f>
+        <v>26.024999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>163.51989761934871</v>
+      </c>
+      <c r="F28" s="39">
+        <f t="shared" si="1"/>
+        <v>1561.5</v>
+      </c>
+      <c r="G28" s="6">
+        <v>193</v>
+      </c>
+      <c r="H28" s="5">
+        <v>-5.83</v>
+      </c>
+      <c r="I28" s="120">
+        <v>7.06</v>
+      </c>
+      <c r="J28" s="121">
+        <v>91.5</v>
+      </c>
+      <c r="K28" s="79"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="74"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.4969999999999999</v>
+      </c>
+      <c r="D29" s="34">
+        <f>123.2/4</f>
+        <v>30.8</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>193.52210746113127</v>
+      </c>
+      <c r="F29" s="38">
+        <f t="shared" si="1"/>
+        <v>1848</v>
+      </c>
+      <c r="G29" s="4">
+        <v>242</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="34">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>100</v>
+      </c>
+      <c r="K29" s="79"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="D30" s="36">
+        <f>148/4</f>
+        <v>37</v>
+      </c>
+      <c r="E30" s="3">
+        <f>D30*2*PI()</f>
+        <v>232.4778563656447</v>
+      </c>
+      <c r="F30" s="40">
+        <f>D30*60</f>
+        <v>2220</v>
+      </c>
+      <c r="G30" s="8">
+        <v>241</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="122">
+        <v>0</v>
+      </c>
+      <c r="J30" s="123">
+        <v>100</v>
+      </c>
+      <c r="K30" s="79"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="74"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dades en Llaç obert.xlsx
+++ b/Dades en Llaç obert.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Control Automatic\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-6510" windowWidth="16440" windowHeight="28440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Motor  Tac. Pot. i ADC" sheetId="1" r:id="rId1"/>
     <sheet name="PWM en llaç obert" sheetId="3" r:id="rId2"/>
     <sheet name="Bodes Filtre i Derivador" sheetId="2" r:id="rId3"/>
     <sheet name="Motor  PWM" sheetId="4" r:id="rId4"/>
+    <sheet name="Motor Antic Analogic" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Angle</t>
   </si>
@@ -1061,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,6 +1287,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1388,38 +1489,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,6 +1507,3652 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ca-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Motor  PWM'!$C$4:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9969999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Motor  PWM'!$E$4:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-232.94909526368318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-191.63715186897738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-161.00662349647689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-128.80529879718151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-101.78760197630929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-80.26769229921922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-52.621676947629034</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-21.598449493429829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.561944901923447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.575216010359952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.535390627309098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>109.95574287564276</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>134.30308594096365</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>163.51989761934871</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>193.52210746113127</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>232.4778563656447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29E7-4CFB-B512-8118F30E27F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="515679376"/>
+        <c:axId val="515683536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="515679376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ca-ES"/>
+                  <a:t>VIN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515683536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515683536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ω</a:t>
+                </a:r>
+                <a:endParaRPr lang="ca-ES" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515679376"/>
+        <c:crossesAt val="-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ca-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Canal -</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Motor  PWM'!$C$4:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9969999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Motor  PWM'!$I$4:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F916-45BA-BA05-7B44461C9C9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Canal +</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Motor  PWM'!$C$4:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9969999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Motor  PWM'!$J$4:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F916-45BA-BA05-7B44461C9C9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="894828400"/>
+        <c:axId val="894828816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="894828400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ca-ES"/>
+                  <a:t>VIN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894828816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="894828816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ca-ES"/>
+                  <a:t>PWM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ca-ES" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ca-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894828400"/>
+        <c:crossesAt val="-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ca-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Motor Antic Analogic'!$C$4:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-4.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0049999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Motor Antic Analogic'!$E$4:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-292.95351494724821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-267.82077371852984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-239.54643983622174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-208.91591146372124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-176.71458676442586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-145.29866022852792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-114.51105222334797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-82.466807156732074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-51.836278784231588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-39.269908169872416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-27.488935718910689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-14.137166941154069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.566370614359172</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.918139392115794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.484510006474963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.836278784231588</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.466807156732074</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113.88273369263</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>146.08405839192537</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>177.49998492782331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>209.38715036175972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>239.54643983622174</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>267.03537555513242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>290.59732045705584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6DB-4582-B6D8-19C73B270EC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="515679376"/>
+        <c:axId val="515683536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="515679376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ca-ES"/>
+                  <a:t>VIN</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515683536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515683536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ω</a:t>
+                </a:r>
+                <a:endParaRPr lang="ca-ES" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515679376"/>
+        <c:crossesAt val="-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gràfic 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC17946-B366-5246-87E2-3D7DE898EEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gràfic 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73424B94-F6AF-DDDB-0CA9-A80AFF971F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gràfic 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC17946-B366-5246-87E2-3D7DE898EEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1738,7 +5455,7 @@
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +5529,7 @@
       <c r="I3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -2534,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>-0.7</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K15" s="4">
         <v>-4.7E-2</v>
@@ -3754,79 +7471,79 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="91" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="88" t="s">
+      <c r="F2" s="126"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="124"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="105" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108" t="s">
+      <c r="I3" s="140"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="M3" s="109"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="143"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="101" t="s">
+      <c r="D4" s="138"/>
+      <c r="E4" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="100" t="s">
+      <c r="F4" s="136"/>
+      <c r="G4" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="110" t="s">
+      <c r="I4" s="119"/>
+      <c r="J4" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="120" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
-      <c r="B5" s="98"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="44" t="s">
         <v>29</v>
       </c>
@@ -3839,21 +7556,21 @@
       <c r="F5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="87"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="111"/>
+      <c r="J5" s="145"/>
       <c r="K5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="87"/>
+      <c r="M5" s="121"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="47">
@@ -4520,22 +8237,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N33"/>
+  <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="21" width="13.28515625" customWidth="1"/>
@@ -4558,28 +8275,28 @@
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="82" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="85" t="s">
         <v>48</v>
       </c>
       <c r="K3" s="74"/>
@@ -4587,71 +8304,71 @@
       <c r="M3" s="74"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="B4" s="87">
         <v>-5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="88">
         <v>-5</v>
       </c>
-      <c r="D4" s="33">
-        <f>148.3/4</f>
-        <v>37.075000000000003</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="89">
+        <f>-148.3/4</f>
+        <v>-37.075000000000003</v>
+      </c>
+      <c r="E4" s="90">
         <f>D4*2*PI()</f>
-        <v>232.94909526368318</v>
-      </c>
-      <c r="F4" s="37">
+        <v>-232.94909526368318</v>
+      </c>
+      <c r="F4" s="91">
         <f>D4*60</f>
-        <v>2224.5</v>
-      </c>
-      <c r="G4" s="2">
+        <v>-2224.5</v>
+      </c>
+      <c r="G4" s="92">
         <v>246</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="93">
         <v>100</v>
       </c>
-      <c r="J4" s="121">
-        <v>0</v>
-      </c>
-      <c r="K4" s="112" t="s">
+      <c r="J4" s="94">
+        <v>0</v>
+      </c>
+      <c r="K4" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="95">
         <v>-4.5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="90">
         <v>-4.5010000000000003</v>
       </c>
-      <c r="D5" s="34">
-        <f>122/4</f>
-        <v>30.5</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="96">
+        <f>-122/4</f>
+        <v>-30.5</v>
+      </c>
+      <c r="E5" s="97">
         <f>D5*2*PI()</f>
-        <v>191.63715186897738</v>
-      </c>
-      <c r="F5" s="38">
+        <v>-191.63715186897738</v>
+      </c>
+      <c r="F5" s="98">
         <f>D5*60</f>
-        <v>1830</v>
-      </c>
-      <c r="G5" s="4">
+        <v>-1830</v>
+      </c>
+      <c r="G5" s="99">
         <v>203</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="90">
         <v>4.58</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="96">
         <v>93.6</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="99">
         <v>6.78</v>
       </c>
       <c r="K5" s="79"/>
@@ -4659,34 +8376,34 @@
       <c r="M5" s="74"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+      <c r="B6" s="100">
         <v>-4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="97">
         <v>-4.0030000000000001</v>
       </c>
-      <c r="D6" s="35">
-        <f>102.5/4</f>
-        <v>25.625</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="101">
+        <f>-102.5/4</f>
+        <v>-25.625</v>
+      </c>
+      <c r="E6" s="90">
         <f t="shared" ref="E6:E29" si="0">D6*2*PI()</f>
-        <v>161.00662349647689</v>
-      </c>
-      <c r="F6" s="39">
+        <v>-161.00662349647689</v>
+      </c>
+      <c r="F6" s="102">
         <f t="shared" ref="F6:F29" si="1">D6*60</f>
-        <v>1537.5</v>
-      </c>
-      <c r="G6" s="6">
+        <v>-1537.5</v>
+      </c>
+      <c r="G6" s="103">
         <v>170</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="97">
         <v>7.6</v>
       </c>
-      <c r="I6" s="120">
+      <c r="I6" s="93">
         <v>88.4</v>
       </c>
-      <c r="J6" s="121">
+      <c r="J6" s="94">
         <v>11.8</v>
       </c>
       <c r="K6" s="79" t="s">
@@ -4700,34 +8417,34 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="95">
         <v>-3.5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="90">
         <v>-3.5019999999999998</v>
       </c>
-      <c r="D7" s="34">
-        <f>82/4</f>
-        <v>20.5</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="96">
+        <f>-82/4</f>
+        <v>-20.5</v>
+      </c>
+      <c r="E7" s="97">
         <f t="shared" si="0"/>
-        <v>128.80529879718151</v>
-      </c>
-      <c r="F7" s="38">
+        <v>-128.80529879718151</v>
+      </c>
+      <c r="F7" s="98">
         <f t="shared" si="1"/>
-        <v>1230</v>
-      </c>
-      <c r="G7" s="4">
+        <v>-1230</v>
+      </c>
+      <c r="G7" s="99">
         <v>138</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="90">
         <v>10.4</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="96">
         <v>83.6</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="99">
         <v>16.7</v>
       </c>
       <c r="K7" s="79" t="s">
@@ -4742,34 +8459,34 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+      <c r="B8" s="100">
         <v>-3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="97">
         <v>-3.0009999999999999</v>
       </c>
-      <c r="D8" s="35">
-        <f>64.8/4</f>
-        <v>16.2</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="101">
+        <f>-64.8/4</f>
+        <v>-16.2</v>
+      </c>
+      <c r="E8" s="90">
         <f t="shared" si="0"/>
-        <v>101.78760197630929</v>
-      </c>
-      <c r="F8" s="39">
+        <v>-101.78760197630929</v>
+      </c>
+      <c r="F8" s="102">
         <f t="shared" si="1"/>
-        <v>972</v>
-      </c>
-      <c r="G8" s="6">
+        <v>-972</v>
+      </c>
+      <c r="G8" s="103">
         <v>114</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="97">
         <v>12.4</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="93">
         <v>79.599999999999994</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J8" s="94">
         <v>21.6</v>
       </c>
       <c r="K8" s="79"/>
@@ -4777,34 +8494,34 @@
       <c r="M8" s="74"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="95">
         <v>-2.5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="90">
         <v>-2.5030000000000001</v>
       </c>
-      <c r="D9" s="34">
-        <f>51.1/4</f>
-        <v>12.775</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="96">
+        <f>-51.1/4</f>
+        <v>-12.775</v>
+      </c>
+      <c r="E9" s="97">
         <f t="shared" si="0"/>
-        <v>80.26769229921922</v>
-      </c>
-      <c r="F9" s="38">
+        <v>-80.26769229921922</v>
+      </c>
+      <c r="F9" s="98">
         <f t="shared" si="1"/>
-        <v>766.5</v>
-      </c>
-      <c r="G9" s="4">
+        <v>-766.5</v>
+      </c>
+      <c r="G9" s="99">
         <v>87</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="90">
         <v>14.8</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="96">
         <v>76.3</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="99">
         <v>26.6</v>
       </c>
       <c r="K9" s="79"/>
@@ -4812,34 +8529,34 @@
       <c r="M9" s="74"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="100">
         <v>-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="97">
         <v>-2</v>
       </c>
-      <c r="D10" s="35">
-        <f>33.5/4</f>
-        <v>8.375</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="101">
+        <f>-33.5/4</f>
+        <v>-8.375</v>
+      </c>
+      <c r="E10" s="90">
         <f t="shared" si="0"/>
-        <v>52.621676947629034</v>
-      </c>
-      <c r="F10" s="39">
+        <v>-52.621676947629034</v>
+      </c>
+      <c r="F10" s="102">
         <f t="shared" si="1"/>
-        <v>502.5</v>
-      </c>
-      <c r="G10" s="6">
+        <v>-502.5</v>
+      </c>
+      <c r="G10" s="103">
         <v>50</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="97">
         <v>18.399999999999999</v>
       </c>
-      <c r="I10" s="120">
+      <c r="I10" s="93">
         <v>70</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="94">
         <v>32.700000000000003</v>
       </c>
       <c r="K10" s="79"/>
@@ -4847,28 +8564,34 @@
       <c r="M10" s="74"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="95">
         <v>-1.5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="90">
         <v>-1.5029999999999999</v>
       </c>
-      <c r="D11" s="34">
-        <f>13.75/4</f>
-        <v>3.4375</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="4">
+      <c r="D11" s="96">
+        <f>-13.75/4</f>
+        <v>-3.4375</v>
+      </c>
+      <c r="E11" s="104">
+        <f t="shared" ref="E11" si="2">D11*2*PI()</f>
+        <v>-21.598449493429829</v>
+      </c>
+      <c r="F11" s="105">
+        <f t="shared" ref="F11" si="3">D11*60</f>
+        <v>-206.25</v>
+      </c>
+      <c r="G11" s="99">
         <v>12</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="90">
         <v>21.3</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="96">
         <v>65.2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="99">
         <v>37.700000000000003</v>
       </c>
       <c r="K11" s="79"/>
@@ -4876,33 +8599,33 @@
       <c r="M11" s="74"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+      <c r="B12" s="100">
         <v>-1</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="97">
         <v>-1.0049999999999999</v>
       </c>
-      <c r="D12" s="35">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="101">
+        <v>0</v>
+      </c>
+      <c r="E12" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="103">
+        <v>0</v>
+      </c>
+      <c r="H12" s="97">
         <v>24.2</v>
       </c>
-      <c r="I12" s="120">
+      <c r="I12" s="93">
         <v>60.2</v>
       </c>
-      <c r="J12" s="121">
+      <c r="J12" s="94">
         <v>42.6</v>
       </c>
       <c r="K12" s="79"/>
@@ -4910,33 +8633,33 @@
       <c r="M12" s="74"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="B13" s="95">
         <v>-0.8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="90">
         <v>-0.80100000000000005</v>
       </c>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="96">
+        <v>0</v>
+      </c>
+      <c r="E13" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="99">
+        <v>0</v>
+      </c>
+      <c r="H13" s="90">
         <v>24.9</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="96">
         <v>59</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="99">
         <v>43.9</v>
       </c>
       <c r="K13" s="79"/>
@@ -4944,33 +8667,33 @@
       <c r="M13" s="74"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+      <c r="B14" s="100">
         <v>-0.6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="97">
         <v>-0.60199999999999998</v>
       </c>
-      <c r="D14" s="35">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="101">
+        <v>0</v>
+      </c>
+      <c r="E14" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="103">
+        <v>0</v>
+      </c>
+      <c r="H14" s="97">
         <v>25.6</v>
       </c>
-      <c r="I14" s="120">
+      <c r="I14" s="93">
         <v>57.7</v>
       </c>
-      <c r="J14" s="121">
+      <c r="J14" s="94">
         <v>45.1</v>
       </c>
       <c r="K14" s="79"/>
@@ -4978,237 +8701,238 @@
       <c r="M14" s="74"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="B15" s="95">
         <v>-0.4</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="90">
         <v>-0.40300000000000002</v>
       </c>
-      <c r="D15" s="34">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="96">
+        <v>0</v>
+      </c>
+      <c r="E15" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="99">
+        <v>0</v>
+      </c>
+      <c r="H15" s="90">
         <v>27</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="96">
         <v>55.2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="99">
         <v>47.6</v>
       </c>
       <c r="K15" s="79"/>
       <c r="L15" s="74"/>
-      <c r="M15" s="124"/>
+      <c r="M15" s="86"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+      <c r="B16" s="100">
         <v>-0.2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="97">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="103">
+        <v>0</v>
+      </c>
+      <c r="H16" s="97">
         <v>27.8</v>
       </c>
-      <c r="I16" s="120">
+      <c r="I16" s="93">
         <v>54</v>
       </c>
-      <c r="J16" s="121">
+      <c r="J16" s="94">
         <v>48.8</v>
       </c>
       <c r="K16" s="79"/>
       <c r="L16" s="74"/>
       <c r="M16" s="74"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="95">
+        <v>0</v>
+      </c>
+      <c r="C17" s="90">
         <v>-1E-3</v>
       </c>
-      <c r="D17" s="34">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="96">
+        <v>0</v>
+      </c>
+      <c r="E17" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="99">
+        <v>0</v>
+      </c>
+      <c r="H17" s="90">
         <v>29.2</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="96">
         <v>51.5</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="99">
         <v>51.3</v>
       </c>
       <c r="K17" s="79"/>
       <c r="L17" s="74"/>
       <c r="M17" s="74"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="100">
         <v>0.2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="97">
         <v>0.20200000000000001</v>
       </c>
-      <c r="D18" s="35">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="101">
+        <v>0</v>
+      </c>
+      <c r="E18" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="103">
+        <v>0</v>
+      </c>
+      <c r="H18" s="97">
         <v>30.7</v>
       </c>
-      <c r="I18" s="120">
+      <c r="I18" s="93">
         <v>49.1</v>
       </c>
-      <c r="J18" s="121">
+      <c r="J18" s="94">
         <v>53.8</v>
       </c>
       <c r="K18" s="79"/>
       <c r="L18" s="74"/>
       <c r="M18" s="74"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="95">
         <v>0.4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="90">
         <v>0.40100000000000002</v>
       </c>
-      <c r="D19" s="34">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="96">
+        <v>0</v>
+      </c>
+      <c r="E19" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="99">
+        <v>0</v>
+      </c>
+      <c r="H19" s="90">
         <v>31.4</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="96">
         <v>47.8</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="99">
         <v>55</v>
       </c>
       <c r="K19" s="79"/>
       <c r="L19" s="74"/>
       <c r="M19" s="74"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="100">
         <v>0.6</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="97">
         <v>0.6</v>
       </c>
-      <c r="D20" s="35">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="101">
+        <v>0</v>
+      </c>
+      <c r="E20" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G20" s="103">
+        <v>0</v>
+      </c>
+      <c r="H20" s="97">
         <v>32.799999999999997</v>
       </c>
-      <c r="I20" s="120">
+      <c r="I20" s="93">
         <v>45.4</v>
       </c>
-      <c r="J20" s="121">
+      <c r="J20" s="94">
         <v>57.5</v>
       </c>
       <c r="K20" s="79"/>
       <c r="L20" s="74"/>
       <c r="M20" s="74"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="O20" s="113"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="95">
         <v>0.8</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="90">
         <v>0.80300000000000005</v>
       </c>
-      <c r="D21" s="34">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="96">
+        <v>0</v>
+      </c>
+      <c r="E21" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="99">
+        <v>0</v>
+      </c>
+      <c r="H21" s="90">
         <v>33.5</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="96">
         <v>44.1</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="99">
         <v>58.7</v>
       </c>
       <c r="K21" s="79"/>
@@ -5216,34 +8940,34 @@
       <c r="M21" s="74"/>
       <c r="N21" s="74"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="100">
         <v>1</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="97">
         <v>1.0049999999999999</v>
       </c>
-      <c r="D22" s="35">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="101">
+        <v>0</v>
+      </c>
+      <c r="E22" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="103">
         <v>10</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="97">
         <v>-21.4</v>
       </c>
-      <c r="I22" s="120">
+      <c r="I22" s="93">
         <v>38</v>
       </c>
-      <c r="J22" s="121">
+      <c r="J22" s="94">
         <v>64.900000000000006</v>
       </c>
       <c r="K22" s="79"/>
@@ -5253,35 +8977,35 @@
       </c>
       <c r="N22" s="74"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="95">
         <v>1.5</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="90">
         <v>1.502</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="96">
         <f>15/4</f>
         <v>3.75</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="97">
         <f t="shared" si="0"/>
         <v>23.561944901923447</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="98">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="99">
         <v>44</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="90">
         <v>-18.600000000000001</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="96">
         <v>33</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="99">
         <v>69.8</v>
       </c>
       <c r="K23" s="79"/>
@@ -5289,35 +9013,35 @@
       <c r="M23" s="74"/>
       <c r="N23" s="74"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="100">
         <v>2</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="97">
         <v>2</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="101">
         <f>39.2/4</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="90">
         <f t="shared" si="0"/>
         <v>61.575216010359952</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="102">
         <f t="shared" si="1"/>
         <v>588</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="103">
         <v>77</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="97">
         <v>-15.6</v>
       </c>
-      <c r="I24" s="120">
+      <c r="I24" s="93">
         <v>28</v>
       </c>
-      <c r="J24" s="121">
+      <c r="J24" s="94">
         <v>74.7</v>
       </c>
       <c r="K24" s="79"/>
@@ -5327,35 +9051,35 @@
       </c>
       <c r="N24" s="74"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="95">
         <v>2.5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="90">
         <v>2.5</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="96">
         <f>57/4</f>
         <v>14.25</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="97">
         <f t="shared" si="0"/>
         <v>89.535390627309098</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="98">
         <f t="shared" si="1"/>
         <v>855</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="99">
         <v>104</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="90">
         <v>-13.1</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="96">
         <v>23.1</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="99">
         <v>79.099999999999994</v>
       </c>
       <c r="K25" s="79"/>
@@ -5363,35 +9087,35 @@
       <c r="M25" s="74"/>
       <c r="N25" s="74"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="100">
         <v>3</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="97">
         <v>3</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="101">
         <f>70/4</f>
         <v>17.5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="90">
         <f t="shared" si="0"/>
         <v>109.95574287564276</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="102">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="103">
         <v>120</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="97">
         <v>-12.2</v>
       </c>
-      <c r="I26" s="120">
+      <c r="I26" s="93">
         <v>18.2</v>
       </c>
-      <c r="J26" s="121">
+      <c r="J26" s="94">
         <v>80.8</v>
       </c>
       <c r="K26" s="79"/>
@@ -5401,35 +9125,35 @@
       </c>
       <c r="N26" s="74"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="95">
         <v>3.5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="90">
         <v>3.5</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="96">
         <f>85.5/4</f>
         <v>21.375</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="97">
         <f t="shared" si="0"/>
         <v>134.30308594096365</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="98">
         <f t="shared" si="1"/>
         <v>1282.5</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="99">
         <v>160</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="90">
         <v>-8.7100000000000009</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="96">
         <v>12</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="99">
         <v>86.6</v>
       </c>
       <c r="K27" s="79"/>
@@ -5437,35 +9161,35 @@
       <c r="M27" s="74"/>
       <c r="N27" s="74"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="100">
         <v>4</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="97">
         <v>4.0010000000000003</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="101">
         <f>104.1/4</f>
         <v>26.024999999999999</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="90">
         <f t="shared" si="0"/>
         <v>163.51989761934871</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="102">
         <f t="shared" si="1"/>
         <v>1561.5</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="103">
         <v>193</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="97">
         <v>-5.83</v>
       </c>
-      <c r="I28" s="120">
+      <c r="I28" s="93">
         <v>7.06</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J28" s="94">
         <v>91.5</v>
       </c>
       <c r="K28" s="79"/>
@@ -5475,77 +9199,77 @@
       </c>
       <c r="N28" s="74"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="95">
         <v>4.5</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="90">
         <v>4.4969999999999999</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="96">
         <f>123.2/4</f>
         <v>30.8</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="97">
         <f t="shared" si="0"/>
         <v>193.52210746113127</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="98">
         <f t="shared" si="1"/>
         <v>1848</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="99">
         <v>242</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="34">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="96">
+        <v>0</v>
+      </c>
+      <c r="J29" s="99">
         <v>100</v>
       </c>
       <c r="K29" s="79"/>
       <c r="L29" s="74"/>
       <c r="M29" s="74"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="14">
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="106">
         <v>5</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="107">
         <v>4.9969999999999999</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="108">
         <f>148/4</f>
         <v>37</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="90">
         <f>D30*2*PI()</f>
         <v>232.4778563656447</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="109">
         <f>D30*60</f>
         <v>2220</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="110">
         <v>241</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="122">
-        <v>0</v>
-      </c>
-      <c r="J30" s="123">
+      <c r="I30" s="111">
+        <v>0</v>
+      </c>
+      <c r="J30" s="112">
         <v>100</v>
       </c>
       <c r="K30" s="79"/>
       <c r="L30" s="74"/>
       <c r="M30" s="74"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -5556,7 +9280,7 @@
       <c r="I31" s="74"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -5568,5 +9292,892 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="87">
+        <v>-5</v>
+      </c>
+      <c r="C4" s="88">
+        <v>-4.9749999999999996</v>
+      </c>
+      <c r="D4" s="89">
+        <f>-186.5/4</f>
+        <v>-46.625</v>
+      </c>
+      <c r="E4" s="90">
+        <f>D4*2*PI()</f>
+        <v>-292.95351494724821</v>
+      </c>
+      <c r="F4" s="91">
+        <f>D4*60</f>
+        <v>-2797.5</v>
+      </c>
+      <c r="G4" s="92">
+        <v>-262</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="95">
+        <v>-4.5</v>
+      </c>
+      <c r="C5" s="90">
+        <v>-4.5049999999999999</v>
+      </c>
+      <c r="D5" s="96">
+        <f>-170.5/4</f>
+        <v>-42.625</v>
+      </c>
+      <c r="E5" s="97">
+        <f>D5*2*PI()</f>
+        <v>-267.82077371852984</v>
+      </c>
+      <c r="F5" s="98">
+        <f>D5*60</f>
+        <v>-2557.5</v>
+      </c>
+      <c r="G5" s="99">
+        <v>-236</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="100">
+        <v>-4</v>
+      </c>
+      <c r="C6" s="97">
+        <v>-4.0060000000000002</v>
+      </c>
+      <c r="D6" s="101">
+        <f>-152.5/4</f>
+        <v>-38.125</v>
+      </c>
+      <c r="E6" s="90">
+        <f t="shared" ref="E6:E29" si="0">D6*2*PI()</f>
+        <v>-239.54643983622174</v>
+      </c>
+      <c r="F6" s="102">
+        <f t="shared" ref="F6:F29" si="1">D6*60</f>
+        <v>-2287.5</v>
+      </c>
+      <c r="G6" s="103">
+        <v>-208</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="95">
+        <v>-3.5</v>
+      </c>
+      <c r="C7" s="90">
+        <v>-3.5059999999999998</v>
+      </c>
+      <c r="D7" s="96">
+        <f>-133/4</f>
+        <v>-33.25</v>
+      </c>
+      <c r="E7" s="97">
+        <f t="shared" si="0"/>
+        <v>-208.91591146372124</v>
+      </c>
+      <c r="F7" s="98">
+        <f t="shared" si="1"/>
+        <v>-1995</v>
+      </c>
+      <c r="G7" s="99">
+        <v>-175</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="100">
+        <v>-3</v>
+      </c>
+      <c r="C8" s="97">
+        <v>-2.9950000000000001</v>
+      </c>
+      <c r="D8" s="101">
+        <f>-112.5/4</f>
+        <v>-28.125</v>
+      </c>
+      <c r="E8" s="90">
+        <f t="shared" si="0"/>
+        <v>-176.71458676442586</v>
+      </c>
+      <c r="F8" s="102">
+        <f t="shared" si="1"/>
+        <v>-1687.5</v>
+      </c>
+      <c r="G8" s="103">
+        <v>-148</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="95">
+        <v>-2.5</v>
+      </c>
+      <c r="C9" s="90">
+        <v>-2.492</v>
+      </c>
+      <c r="D9" s="96">
+        <f>-92.5/4</f>
+        <v>-23.125</v>
+      </c>
+      <c r="E9" s="97">
+        <f t="shared" si="0"/>
+        <v>-145.29866022852792</v>
+      </c>
+      <c r="F9" s="98">
+        <f t="shared" si="1"/>
+        <v>-1387.5</v>
+      </c>
+      <c r="G9" s="99">
+        <v>-121</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="100">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="97">
+        <v>-1.998</v>
+      </c>
+      <c r="D10" s="101">
+        <f>-72.9/4</f>
+        <v>-18.225000000000001</v>
+      </c>
+      <c r="E10" s="90">
+        <f t="shared" si="0"/>
+        <v>-114.51105222334797</v>
+      </c>
+      <c r="F10" s="102">
+        <f t="shared" si="1"/>
+        <v>-1093.5</v>
+      </c>
+      <c r="G10" s="103">
+        <v>-95</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="95">
+        <v>-1.5</v>
+      </c>
+      <c r="C11" s="90">
+        <v>-1.4950000000000001</v>
+      </c>
+      <c r="D11" s="96">
+        <f>-52.5/4</f>
+        <v>-13.125</v>
+      </c>
+      <c r="E11" s="104">
+        <f t="shared" si="0"/>
+        <v>-82.466807156732074</v>
+      </c>
+      <c r="F11" s="105">
+        <f t="shared" si="1"/>
+        <v>-787.5</v>
+      </c>
+      <c r="G11" s="99">
+        <v>-58</v>
+      </c>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="100">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="97">
+        <v>-1.0029999999999999</v>
+      </c>
+      <c r="D12" s="101">
+        <f>-33/4</f>
+        <v>-8.25</v>
+      </c>
+      <c r="E12" s="90">
+        <f t="shared" si="0"/>
+        <v>-51.836278784231588</v>
+      </c>
+      <c r="F12" s="102">
+        <f t="shared" si="1"/>
+        <v>-495</v>
+      </c>
+      <c r="G12" s="103">
+        <v>-43</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="95">
+        <v>-0.8</v>
+      </c>
+      <c r="C13" s="90">
+        <v>-0.80500000000000005</v>
+      </c>
+      <c r="D13" s="96">
+        <f>-25/4</f>
+        <v>-6.25</v>
+      </c>
+      <c r="E13" s="97">
+        <f t="shared" si="0"/>
+        <v>-39.269908169872416</v>
+      </c>
+      <c r="F13" s="98">
+        <f t="shared" si="1"/>
+        <v>-375</v>
+      </c>
+      <c r="G13" s="99">
+        <v>-33</v>
+      </c>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="100">
+        <v>-0.6</v>
+      </c>
+      <c r="C14" s="97">
+        <v>-0.60699999999999998</v>
+      </c>
+      <c r="D14" s="101">
+        <f>-17.5/4</f>
+        <v>-4.375</v>
+      </c>
+      <c r="E14" s="90">
+        <f t="shared" si="0"/>
+        <v>-27.488935718910689</v>
+      </c>
+      <c r="F14" s="102">
+        <f t="shared" si="1"/>
+        <v>-262.5</v>
+      </c>
+      <c r="G14" s="103">
+        <v>-22.5</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="95">
+        <v>-0.4</v>
+      </c>
+      <c r="C15" s="90">
+        <v>-0.40500000000000003</v>
+      </c>
+      <c r="D15" s="96">
+        <f>-9/4</f>
+        <v>-2.25</v>
+      </c>
+      <c r="E15" s="97">
+        <f t="shared" si="0"/>
+        <v>-14.137166941154069</v>
+      </c>
+      <c r="F15" s="98">
+        <f t="shared" si="1"/>
+        <v>-135</v>
+      </c>
+      <c r="G15" s="99">
+        <v>-12</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="86"/>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="100">
+        <v>-0.2</v>
+      </c>
+      <c r="C16" s="97">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="103">
+        <v>0</v>
+      </c>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="95">
+        <v>0</v>
+      </c>
+      <c r="C17" s="90">
+        <v>0</v>
+      </c>
+      <c r="D17" s="96">
+        <v>0</v>
+      </c>
+      <c r="E17" s="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="99">
+        <v>0</v>
+      </c>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="97">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="101">
+        <v>0</v>
+      </c>
+      <c r="E18" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="103">
+        <v>0</v>
+      </c>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="95">
+        <v>0.4</v>
+      </c>
+      <c r="C19" s="90">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D19" s="96">
+        <f>8/4</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="97">
+        <f t="shared" si="0"/>
+        <v>12.566370614359172</v>
+      </c>
+      <c r="F19" s="98">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G19" s="99">
+        <v>12</v>
+      </c>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="100">
+        <v>0.6</v>
+      </c>
+      <c r="C20" s="97">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D20" s="101">
+        <f>16.5/4</f>
+        <v>4.125</v>
+      </c>
+      <c r="E20" s="90">
+        <f t="shared" si="0"/>
+        <v>25.918139392115794</v>
+      </c>
+      <c r="F20" s="102">
+        <f t="shared" si="1"/>
+        <v>247.5</v>
+      </c>
+      <c r="G20" s="103">
+        <v>22</v>
+      </c>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="O20" s="113"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="95">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="90">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D21" s="96">
+        <f>24.5/4</f>
+        <v>6.125</v>
+      </c>
+      <c r="E21" s="97">
+        <f t="shared" si="0"/>
+        <v>38.484510006474963</v>
+      </c>
+      <c r="F21" s="98">
+        <f t="shared" si="1"/>
+        <v>367.5</v>
+      </c>
+      <c r="G21" s="99">
+        <v>32.5</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="100">
+        <v>1</v>
+      </c>
+      <c r="C22" s="97">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D22" s="101">
+        <f>33/4</f>
+        <v>8.25</v>
+      </c>
+      <c r="E22" s="90">
+        <f t="shared" si="0"/>
+        <v>51.836278784231588</v>
+      </c>
+      <c r="F22" s="102">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="G22" s="103">
+        <v>43</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="74"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="95">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="90">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="D23" s="96">
+        <f>52.5/4</f>
+        <v>13.125</v>
+      </c>
+      <c r="E23" s="97">
+        <f t="shared" si="0"/>
+        <v>82.466807156732074</v>
+      </c>
+      <c r="F23" s="98">
+        <f t="shared" si="1"/>
+        <v>787.5</v>
+      </c>
+      <c r="G23" s="99">
+        <v>68</v>
+      </c>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="100">
+        <v>2</v>
+      </c>
+      <c r="C24" s="97">
+        <v>1.998</v>
+      </c>
+      <c r="D24" s="101">
+        <f>72.5/4</f>
+        <v>18.125</v>
+      </c>
+      <c r="E24" s="90">
+        <f t="shared" si="0"/>
+        <v>113.88273369263</v>
+      </c>
+      <c r="F24" s="102">
+        <f t="shared" si="1"/>
+        <v>1087.5</v>
+      </c>
+      <c r="G24" s="103">
+        <v>95</v>
+      </c>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="74"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="95">
+        <v>2.5</v>
+      </c>
+      <c r="C25" s="90">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="D25" s="96">
+        <f>93/4</f>
+        <v>23.25</v>
+      </c>
+      <c r="E25" s="97">
+        <f t="shared" si="0"/>
+        <v>146.08405839192537</v>
+      </c>
+      <c r="F25" s="98">
+        <f t="shared" si="1"/>
+        <v>1395</v>
+      </c>
+      <c r="G25" s="99">
+        <v>122</v>
+      </c>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="100">
+        <v>3</v>
+      </c>
+      <c r="C26" s="97">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="D26" s="101">
+        <f>113/4</f>
+        <v>28.25</v>
+      </c>
+      <c r="E26" s="90">
+        <f t="shared" si="0"/>
+        <v>177.49998492782331</v>
+      </c>
+      <c r="F26" s="102">
+        <f t="shared" si="1"/>
+        <v>1695</v>
+      </c>
+      <c r="G26" s="103">
+        <v>147</v>
+      </c>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="74"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="95">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="90">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="D27" s="96">
+        <f>133.3/4</f>
+        <v>33.325000000000003</v>
+      </c>
+      <c r="E27" s="97">
+        <f t="shared" si="0"/>
+        <v>209.38715036175972</v>
+      </c>
+      <c r="F27" s="98">
+        <f t="shared" si="1"/>
+        <v>1999.5000000000002</v>
+      </c>
+      <c r="G27" s="99">
+        <v>175</v>
+      </c>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="100">
+        <v>4</v>
+      </c>
+      <c r="C28" s="97">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="D28" s="101">
+        <f>152.5/4</f>
+        <v>38.125</v>
+      </c>
+      <c r="E28" s="90">
+        <f t="shared" si="0"/>
+        <v>239.54643983622174</v>
+      </c>
+      <c r="F28" s="102">
+        <f t="shared" si="1"/>
+        <v>2287.5</v>
+      </c>
+      <c r="G28" s="103">
+        <v>215</v>
+      </c>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="74"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="95">
+        <v>4.5</v>
+      </c>
+      <c r="C29" s="90">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="D29" s="96">
+        <f>170/4</f>
+        <v>42.5</v>
+      </c>
+      <c r="E29" s="97">
+        <f t="shared" si="0"/>
+        <v>267.03537555513242</v>
+      </c>
+      <c r="F29" s="98">
+        <f t="shared" si="1"/>
+        <v>2550</v>
+      </c>
+      <c r="G29" s="99">
+        <v>240</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="106">
+        <v>5</v>
+      </c>
+      <c r="C30" s="107">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="D30" s="108">
+        <f>185/4</f>
+        <v>46.25</v>
+      </c>
+      <c r="E30" s="90">
+        <f>D30*2*PI()</f>
+        <v>290.59732045705584</v>
+      </c>
+      <c r="F30" s="109">
+        <f>D30*60</f>
+        <v>2775</v>
+      </c>
+      <c r="G30" s="110">
+        <v>260</v>
+      </c>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dades en Llaç obert.xlsx
+++ b/Dades en Llaç obert.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B662E-6534-4A37-8561-544B8F98E9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6510" windowWidth="16440" windowHeight="28440" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-6510" windowWidth="16440" windowHeight="28440" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor  Tac. Pot. i ADC" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Motor  PWM" sheetId="4" r:id="rId4"/>
     <sheet name="Motor Antic Analogic" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -202,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1387,110 +1388,110 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,7 +1804,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1829,7 +1829,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="ca-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1867,7 +1867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="ca-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="515683536"/>
@@ -1928,7 +1928,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1954,7 +1953,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="ca-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1992,7 +1991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="ca-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="515679376"/>
@@ -2033,7 +2032,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="ca-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2558,7 +2557,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2584,7 +2582,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="ca-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2622,7 +2620,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="ca-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="894828816"/>
@@ -2684,7 +2682,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2710,7 +2707,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="ca-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2748,7 +2745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="ca-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="894828400"/>
@@ -2765,7 +2762,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2791,7 +2787,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="ca-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2821,7 +2817,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="ca-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3126,7 +3122,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3152,7 +3147,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="ca-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3190,7 +3185,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="ca-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="515683536"/>
@@ -3251,7 +3246,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3277,7 +3271,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="ca-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3315,7 +3309,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="ca-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="515679376"/>
@@ -3356,7 +3350,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="ca-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5055,7 +5049,7 @@
         <xdr:cNvPr id="3" name="Gràfic 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC17946-B366-5246-87E2-3D7DE898EEC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5091,7 +5085,7 @@
         <xdr:cNvPr id="4" name="Gràfic 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73424B94-F6AF-DDDB-0CA9-A80AFF971F88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5132,7 +5126,7 @@
         <xdr:cNvPr id="2" name="Gràfic 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC17946-B366-5246-87E2-3D7DE898EEC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5451,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6991,7 +6985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7460,7 +7454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7471,79 +7465,79 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="125" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="122" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="139" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="140"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142" t="s">
+      <c r="I3" s="141"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="M3" s="143"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="144"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="135" t="s">
+      <c r="D4" s="139"/>
+      <c r="E4" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="134" t="s">
+      <c r="F4" s="137"/>
+      <c r="G4" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="144" t="s">
+      <c r="I4" s="120"/>
+      <c r="J4" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="118" t="s">
+      <c r="K4" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120" t="s">
+      <c r="L4" s="120"/>
+      <c r="M4" s="121" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
-      <c r="B5" s="132"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="44" t="s">
         <v>29</v>
       </c>
@@ -7556,21 +7550,21 @@
       <c r="F5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="145"/>
+      <c r="J5" s="146"/>
       <c r="K5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="121"/>
+      <c r="M5" s="122"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="47">
@@ -8236,11 +8230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8334,11 +8328,11 @@
       <c r="J4" s="94">
         <v>0</v>
       </c>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="95">
@@ -9297,10 +9291,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -9385,8 +9379,8 @@
       <c r="I4" s="74"/>
       <c r="J4" s="74"/>
       <c r="K4" s="74"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="95">
